--- a/Risk Register/Risk-Register-Template.xlsx
+++ b/Risk Register/Risk-Register-Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brutn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CITS3200\Risk Register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05626299-96E9-4982-BDB6-FBF5583774A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB077173-B484-4E60-A839-83C3569D96BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
   <si>
     <t>Positive Risk Response Options</t>
   </si>
@@ -190,6 +190,291 @@
   </si>
   <si>
     <t>Template from: https://www.leadingagile.com/</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>cost (over budget)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>completion (goals not met)</t>
+  </si>
+  <si>
+    <t>Member participation</t>
+  </si>
+  <si>
+    <t>Member communication</t>
+  </si>
+  <si>
+    <t>Client communication</t>
+  </si>
+  <si>
+    <t>Sickness</t>
+  </si>
+  <si>
+    <t>Study/Assignments</t>
+  </si>
+  <si>
+    <t>performance</t>
+  </si>
+  <si>
+    <t>usability</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>User security</t>
+  </si>
+  <si>
+    <t>data sensitivity</t>
+  </si>
+  <si>
+    <t>Cross platform complications</t>
+  </si>
+  <si>
+    <t>Unforeseen technical complications</t>
+  </si>
+  <si>
+    <t>Unbalanced progress (i.e. can't implement A until B is completed)</t>
+  </si>
+  <si>
+    <t>Resource availability</t>
+  </si>
+  <si>
+    <t>unmet client expectaions</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Team dynamics</t>
+  </si>
+  <si>
+    <t>If an idea or content is presented to the client and deemed unwanted</t>
+  </si>
+  <si>
+    <t>If content presented to the client and deemed lacking.</t>
+  </si>
+  <si>
+    <t>If more hours are spent on the project than anticipated</t>
+  </si>
+  <si>
+    <t>If it is calculated that there is not enough time to complete particular goal(s).</t>
+  </si>
+  <si>
+    <t>If member(s) are working noticeably below average hours or has no current task assigned.</t>
+  </si>
+  <si>
+    <t>If there is inadequate communication between members.</t>
+  </si>
+  <si>
+    <t>If there is inadequate communication with the client or barriers to said communication.</t>
+  </si>
+  <si>
+    <t>If any work is or will be disrupted by sickness.</t>
+  </si>
+  <si>
+    <t>If any work is or will be disrupted by other units.</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>If task(s) are taking longer than expected or available time is reduced (e.g. by member work/study).</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>If any work is or will be disrupted by other work.</t>
+  </si>
+  <si>
+    <t>If any function of the project does not work as intended or found to use an unacceptable amount of resources (e.g. is too slow)</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Long term</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>If developed functions are found to be to complicated or otherwise difficult to use by intended users.</t>
+  </si>
+  <si>
+    <t>If a function is determined to require maintenance in order to continue to work over time</t>
+  </si>
+  <si>
+    <t>If there is found to be any possible breach of user privacy with the current system.</t>
+  </si>
+  <si>
+    <t>If any data is found to be stored or communicated in an inappropriate format.</t>
+  </si>
+  <si>
+    <t>system security</t>
+  </si>
+  <si>
+    <t>If the system itself is found to be vunerable to security breach.</t>
+  </si>
+  <si>
+    <t>If cross mobile platform support is determined to be infeasible.</t>
+  </si>
+  <si>
+    <t>If any technical aspect of production is determined to negatively influence overall production is discovered.</t>
+  </si>
+  <si>
+    <t>Copyright issues</t>
+  </si>
+  <si>
+    <t>Legal issues</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>If it is determined that the current division of labour is insufficient and can be improved.</t>
+  </si>
+  <si>
+    <t>Reallocating subgroup members and/or division of labour as appropriate.</t>
+  </si>
+  <si>
+    <t>If the planned resources to complete a task are unavailable or otherwise unusable.</t>
+  </si>
+  <si>
+    <t>If any function is discovered to have any legal issue that must be addressed.</t>
+  </si>
+  <si>
+    <t>If material used or intended to be used are discovered to breach copyright for any reason.</t>
+  </si>
+  <si>
+    <t>Time will have been wasted which could have been more productive.</t>
+  </si>
+  <si>
+    <t>Team overworked and suffer in other units.</t>
+  </si>
+  <si>
+    <t>Task not completed.</t>
+  </si>
+  <si>
+    <t>Project not completed.</t>
+  </si>
+  <si>
+    <t>Overall quality drops, and/or other members overworked.</t>
+  </si>
+  <si>
+    <t>Tasks overlooked or not completed. Same work repeated by different members.</t>
+  </si>
+  <si>
+    <t>Tasks unclear and not met. Effort wasted.</t>
+  </si>
+  <si>
+    <t>Member tasks not done or rushed.</t>
+  </si>
+  <si>
+    <t>Product unusable, client gives poor review to the team.</t>
+  </si>
+  <si>
+    <t>Product becomes unusable over time.</t>
+  </si>
+  <si>
+    <t>User information is obtained and misussed by 3rd parties, legal action taken.</t>
+  </si>
+  <si>
+    <t>System information is obtained and system broken by 3rd parties.</t>
+  </si>
+  <si>
+    <t>Two incomplete apps produced.</t>
+  </si>
+  <si>
+    <t>Product not completed.</t>
+  </si>
+  <si>
+    <t>Legal action taken by offended party against group.</t>
+  </si>
+  <si>
+    <t>Mitigate/transfer</t>
+  </si>
+  <si>
+    <t>Effort put into unnecessary content</t>
   </si>
 </sst>
 </file>
@@ -551,7 +836,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -886,25 +1212,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="15.69921875" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21.296875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="7" max="7" width="18.8984375" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" customWidth="1"/>
     <col min="9" max="9" width="21.69921875" customWidth="1"/>
     <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="21.296875" customWidth="1"/>
-    <col min="12" max="12" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="23.296875" customWidth="1"/>
+    <col min="11" max="11" width="21.19921875" customWidth="1"/>
+    <col min="12" max="12" width="19.3984375" customWidth="1"/>
+    <col min="13" max="13" width="23.19921875" customWidth="1"/>
     <col min="14" max="14" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -933,7 +1260,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1288,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1354,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
@@ -1071,7 +1398,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="16" t="s">
         <v>30</v>
@@ -1158,229 +1485,900 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <f>F11*G11</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="H11">
-        <f>F11*G11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <f>F12*G12</f>
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H35" si="0">F12*G12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="H13" s="3">
+        <f>F13*G13</f>
+        <v>6</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="H14" s="3">
+        <f t="shared" ref="H14:H33" si="0">F14*G14</f>
+        <v>6</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="I19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" ht="78" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="I25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
         <v>9</v>
       </c>
-      <c r="H19">
+      <c r="I28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H20">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>13</v>
-      </c>
-      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>15</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>18</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>19</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>20</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>21</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>22</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>23</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>24</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>25</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1390,6 +2388,50 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A35:N38 H33 L33 A33:E33 A11:N32">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="TBD">
+      <formula>NOT(ISERROR(SEARCH("TBD",A11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33 L33 A33:E33 A11:N32">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="TBD">
+      <formula>NOT(ISERROR(SEARCH("TBD",I33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:G33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="3"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="3.5"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>

--- a/Risk Register/Risk-Register-Template.xlsx
+++ b/Risk Register/Risk-Register-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CITS3200\Risk Register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB077173-B484-4E60-A839-83C3569D96BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BE2E3-6DAD-48FB-A2CE-E07521A6CF82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="167">
   <si>
     <t>Positive Risk Response Options</t>
   </si>
@@ -475,6 +475,57 @@
   </si>
   <si>
     <t>Effort put into unnecessary content</t>
+  </si>
+  <si>
+    <t>Confirm with client exact bounds, update scope of work if necessary and cease any further work on feature.</t>
+  </si>
+  <si>
+    <t>Determine allowable extra hours, drop stretch goals and/or others goals as necessary.</t>
+  </si>
+  <si>
+    <t>Redistribute work and/or spend more time if possible.</t>
+  </si>
+  <si>
+    <t>Determine most appropriate goals to drop, starting from stretch goal, drop and reallocate remaining work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If no assigned task, assign new task. If not working, address issue and try resolve by encouraging work or providing support between members. </t>
+  </si>
+  <si>
+    <t>Address issue and make communication means and expectations clear.</t>
+  </si>
+  <si>
+    <t>Try to remove barriers, keep attempting to communicate. If necessary meet in person and address issue directly.</t>
+  </si>
+  <si>
+    <t>Redistribute work as appropriate.</t>
+  </si>
+  <si>
+    <t>Aim to perform more work at other times to compensate for lost time. Redistribute work as appropriate.</t>
+  </si>
+  <si>
+    <t>Attempt to reduce as much as possible by using alternative solutions and seek to maximize performance.</t>
+  </si>
+  <si>
+    <t>Attempt to simplify GUI as much as possible and redesign as necessary.</t>
+  </si>
+  <si>
+    <t>Seek alternatives, if no better solution feasable then set up action plan for when the problem arises.</t>
+  </si>
+  <si>
+    <t>Resolve issue if at all possible. If not possible, reduce risk as much as possible and seek alternative methods.</t>
+  </si>
+  <si>
+    <t>Have primary platform (IOS) and drop alternative platform and focus team solely on primary platform.</t>
+  </si>
+  <si>
+    <t>Attempt to solve and/or find alternative solutions.</t>
+  </si>
+  <si>
+    <t>Seek alternative resources.</t>
+  </si>
+  <si>
+    <t>Resolve issue immediately.</t>
   </si>
 </sst>
 </file>
@@ -836,7 +887,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1214,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1485,7 +1556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -1521,10 +1592,12 @@
       <c r="L11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>76</v>
       </c>
@@ -1560,10 +1633,12 @@
       <c r="L12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -1599,7 +1674,9 @@
       <c r="L13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
@@ -1638,10 +1715,12 @@
       <c r="L14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
@@ -1677,10 +1756,12 @@
       <c r="L15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
@@ -1716,7 +1797,9 @@
       <c r="L16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
@@ -1755,10 +1838,12 @@
       <c r="L17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>82</v>
       </c>
@@ -1794,7 +1879,9 @@
       <c r="L18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
@@ -1833,10 +1920,12 @@
       <c r="L19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>84</v>
       </c>
@@ -1872,10 +1961,12 @@
       <c r="L20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>107</v>
       </c>
@@ -1911,7 +2002,9 @@
       <c r="L21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="78" x14ac:dyDescent="0.3">
@@ -1950,7 +2043,9 @@
       <c r="L22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
@@ -1989,7 +2084,9 @@
       <c r="L23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2028,7 +2125,9 @@
       <c r="L24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2067,7 +2166,9 @@
       <c r="L25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.3">
@@ -2106,10 +2207,12 @@
       <c r="L26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>90</v>
       </c>
@@ -2145,10 +2248,12 @@
       <c r="L27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="78" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
@@ -2184,7 +2289,9 @@
       <c r="L28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
@@ -2223,7 +2330,9 @@
       <c r="L29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="62.4" x14ac:dyDescent="0.3">
@@ -2303,7 +2412,9 @@
       <c r="L31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
@@ -2342,10 +2453,12 @@
       <c r="L32" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>127</v>
       </c>
@@ -2379,6 +2492,9 @@
       </c>
       <c r="L33" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2389,27 +2505,27 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A35:N38 H33 L33 A33:E33 A11:N32">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="TBD">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="TBD">
       <formula>NOT(ISERROR(SEARCH("TBD",A11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33 L33 A33:E33 A11:N32">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="TBD">
+      <formula>NOT(ISERROR(SEARCH("TBD",I33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="TBD">
-      <formula>NOT(ISERROR(SEARCH("TBD",I33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F11:G33">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="2"/>
@@ -2421,7 +2537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H33">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="3.5"/>
@@ -2430,6 +2546,16 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="TBD">
+      <formula>NOT(ISERROR(SEARCH("TBD",M33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
